--- a/support/doc-templates/excel/EOFramework-Excel-Template-01.xlsx
+++ b/support/doc-templates/excel/EOFramework-Excel-Template-01.xlsx
@@ -610,7 +610,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 03, 2025</t>
+          <t>November 09, 2025</t>
         </is>
       </c>
     </row>

--- a/support/doc-templates/excel/EOFramework-Excel-Template-01.xlsx
+++ b/support/doc-templates/excel/EOFramework-Excel-Template-01.xlsx
@@ -207,10 +207,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1428750" cy="476250"/>
+    <ext cx="1143000" cy="285750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -218,56 +218,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1428750" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -586,7 +536,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="60" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="30" customHeight="1">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -629,12 +579,12 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Purpose:</t>
+          <t>Customer Name:</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>[Document Purpose]</t>
+          <t>[Customer Name]</t>
         </is>
       </c>
     </row>
@@ -652,9 +602,9 @@
     </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="60" customHeight="1"/>
+    <row r="13" ht="10" customHeight="1"/>
     <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
+    <row r="15" ht="40" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
